--- a/משק כישורית.xlsx
+++ b/משק כישורית.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">בטטה כישורית </t>
+          <t xml:space="preserve">בטטה כישורית  *במבצע* </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -503,11 +503,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(ק"ג, מלאי מוגבל)</t>
+          <t>(ק"ג)</t>
         </is>
       </c>
     </row>
@@ -559,11 +559,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">דלעת כישורית *במבצע* </t>
+          <t xml:space="preserve">דלעת כישורית </t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -574,41 +574,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">דלעת ערמונים אורגנית </t>
+          <t xml:space="preserve">חסה עגולה כישורית </t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(ק"ג,2-4 יחידות)</t>
+          <t>(יח')</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">חסה ערבית כישורית </t>
+          <t xml:space="preserve">חציל אורגני </t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">(יח') </t>
+          <t>(ק"ג)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">חציל אורגני </t>
+          <t xml:space="preserve">מלפפון אורגני </t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -619,22 +619,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">חציל יפני אורגני ארוז </t>
+          <t xml:space="preserve">מלפפון בייבי אורגני </t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(כ400 גרם)</t>
+          <t>(יח')</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">לפת מתוקה כישורית </t>
+          <t xml:space="preserve">מנגולד צבעוני כישורית </t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -642,29 +642,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(צרור)</t>
+          <t>(יח')</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">מלפפון בייבי אורגני </t>
+          <t xml:space="preserve">סלק אדום כישורית </t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t>(ק"ג)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">מלפפון חממה כישורית </t>
+          <t xml:space="preserve">סלק זהוב כישורית </t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -672,104 +672,104 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ק"ג) </t>
+          <t>(ק"ג)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">מנגולד צבעוני כישורית </t>
+          <t xml:space="preserve">עגבניות אורגניות </t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t>(ק"ג, מלאי מוגבל, ייתכנו חוסרים)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">סלק אדום כישורית </t>
+          <t xml:space="preserve">עגבניות מגי כישורית </t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t xml:space="preserve">(ק"ג, מלאי מוגבל, עד ק"ג להזמנה) </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">סלק זהוב כישורית </t>
+          <t xml:space="preserve">עגבניות שרי כישורית </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t>(יח')</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">עגבניות אורגניות </t>
+          <t xml:space="preserve">עלי בייבי כישורית </t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(ק"ג, מלאי מוגבל, ייתכנו חוסרים)</t>
+          <t>(יח')</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">עלי בייבי כישורית </t>
+          <t xml:space="preserve">עלי מיזונה אדומה כישורית </t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t>(יח', חריף)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">פלפל ביס אורגני </t>
+          <t xml:space="preserve">פלפל אורגני אדום\כתום\צהוב </t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(יחידה)</t>
+          <t>(ק"ג)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">פלפל צ'ילי חריף כישורית </t>
+          <t xml:space="preserve">פלפל ביס אורגני </t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -777,29 +777,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(יח' ארוזה)</t>
+          <t>(יחידה)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">קולורבי לבן כישורית </t>
+          <t xml:space="preserve">פלפל צ'ילי חריף כישורית *במבצע* </t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ק"ג) </t>
+          <t>(יח' ארוזה)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">קייל אדום נימים כישורית </t>
+          <t xml:space="preserve">צנונית  כישורית </t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -807,35 +807,80 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t xml:space="preserve">(יח') </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">רוקט כישורית </t>
+          <t xml:space="preserve">קולורבי לבן כישורית  *במבצע* </t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t xml:space="preserve">(ק"ג) </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">תפוח אדמה צהוב אורגני </t>
+          <t xml:space="preserve">קולורבי סגול כישורית *במבצע* </t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>9</v>
       </c>
       <c r="C27" t="inlineStr">
+        <is>
+          <t>(ק"ג)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">קייל אדום נימים כישורית </t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>(יח')</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">רוקט כישורית </t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>(יח')</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תפוח אדמה צהוב אורגני </t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>(ק"ג)</t>
         </is>

--- a/משק כישורית.xlsx
+++ b/משק כישורית.xlsx
@@ -454,7 +454,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ארטישוק ירושלמי כישורית </t>
+          <t xml:space="preserve">ארטישוק ירושלמי  </t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -469,7 +469,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">בטטה כישורית  *במבצע* </t>
+          <t xml:space="preserve">בטטה    </t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -514,7 +514,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">בצל ירוק כישורית </t>
+          <t xml:space="preserve">בצל ירוק  </t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -544,7 +544,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">דלורית כישורית </t>
+          <t xml:space="preserve">דלורית  </t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -559,7 +559,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">דלעת כישורית </t>
+          <t xml:space="preserve">דלעת  </t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -574,7 +574,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">חסה עגולה כישורית </t>
+          <t xml:space="preserve">חסה עגולה  </t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -634,7 +634,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">מנגולד צבעוני כישורית </t>
+          <t xml:space="preserve">מנגולד צבעוני  </t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -649,7 +649,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">סלק אדום כישורית </t>
+          <t xml:space="preserve">סלק אדום  </t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -664,7 +664,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">סלק זהוב כישורית </t>
+          <t xml:space="preserve">סלק זהוב  </t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -694,7 +694,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">עגבניות מגי כישורית </t>
+          <t xml:space="preserve">עגבניות מגי  </t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -709,7 +709,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">עגבניות שרי כישורית </t>
+          <t xml:space="preserve">עגבניות שרי  </t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -724,7 +724,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">עלי בייבי כישורית </t>
+          <t xml:space="preserve">עלי בייבי  </t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -739,7 +739,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">עלי מיזונה אדומה כישורית </t>
+          <t xml:space="preserve">עלי מיזונה אדומה  </t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -784,7 +784,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">פלפל צ'ילי חריף כישורית *במבצע* </t>
+          <t xml:space="preserve">פלפל צ'ילי חריף   </t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -799,7 +799,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">צנונית  כישורית </t>
+          <t xml:space="preserve">צנונית   </t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -814,7 +814,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">קולורבי לבן כישורית  *במבצע* </t>
+          <t xml:space="preserve">קולורבי לבן    </t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -829,7 +829,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">קולורבי סגול כישורית *במבצע* </t>
+          <t xml:space="preserve">קולורבי סגול   </t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -844,7 +844,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">קייל אדום נימים כישורית </t>
+          <t xml:space="preserve">קייל אדום נימים  </t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -859,7 +859,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">רוקט כישורית </t>
+          <t xml:space="preserve">רוקט  </t>
         </is>
       </c>
       <c r="B29" t="n">

--- a/משק כישורית.xlsx
+++ b/משק כישורית.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
@@ -522,44 +522,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t>יח'</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">גזר כתום אורגני </t>
+          <t xml:space="preserve">גזר  - צרור גזר כתום ולבן </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(יחידה ארוזה, המחיר לק"ג)</t>
+          <t>יח'</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">דלורית  </t>
+          <t xml:space="preserve">גזר כתום אורגני </t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">(נא לציין מס' יחידות. המחיר לק"ג) </t>
+          <t>יחידה ארוזה, המחיר לק"ג</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">דלעת  </t>
+          <t xml:space="preserve">דלורית  </t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -567,104 +567,104 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(חתוכה, ק"ג)</t>
+          <t xml:space="preserve">נא לציין מס' יחידות. המחיר לק"ג </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">חסה עגולה  </t>
+          <t xml:space="preserve">דלורית  </t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t xml:space="preserve">ק"ג </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">חציל אורגני </t>
+          <t xml:space="preserve">דלעת  </t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t>חתוכה, ק"ג</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">מלפפון אורגני </t>
+          <t xml:space="preserve">חסה ערבית  </t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t xml:space="preserve">יח' </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">מלפפון בייבי אורגני </t>
+          <t xml:space="preserve">חציל אורגני </t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">מנגולד צבעוני  </t>
+          <t xml:space="preserve">מלפפון אורגני </t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">סלק אדום  </t>
+          <t xml:space="preserve">מלפפון בייבי אורגני </t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t>יח'</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">סלק זהוב  </t>
+          <t xml:space="preserve">סלק אדום  </t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -672,202 +672,202 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">עגבניות אורגניות </t>
+          <t xml:space="preserve">עגבניות מגי  </t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(ק"ג, מלאי מוגבל, ייתכנו חוסרים)</t>
+          <t xml:space="preserve">ק"ג, מלאי מוגבל 1 ק"ג להזמנה </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">עגבניות מגי  </t>
+          <t xml:space="preserve">עגבניות שרי  </t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ק"ג, מלאי מוגבל, עד ק"ג להזמנה) </t>
+          <t>יח'</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">עגבניות שרי  </t>
+          <t xml:space="preserve">פלפל אורגני אדום\כתום\צהוב </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">עלי בייבי  </t>
+          <t xml:space="preserve">פלפל ביס אורגני </t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t>יחידה</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">עלי מיזונה אדומה  </t>
+          <t xml:space="preserve">פלפל צ'ילי חריף   </t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(יח', חריף)</t>
+          <t>יח' ארוזה</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">פלפל אורגני אדום\כתום\צהוב </t>
+          <t xml:space="preserve">צנונית   </t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t xml:space="preserve">יח' </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">פלפל ביס אורגני </t>
+          <t xml:space="preserve">קולורבי לבן    </t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(יחידה)</t>
+          <t xml:space="preserve">ק"ג </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">פלפל צ'ילי חריף   </t>
+          <t xml:space="preserve">קולורבי סגול   </t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(יח' ארוזה)</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">צנונית   </t>
+          <t xml:space="preserve">קייל אדום נימים - *זוג במבצע* </t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">(יח') </t>
+          <t>זוג</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">קולורבי לבן    </t>
+          <t xml:space="preserve">קייל אדום נימים  </t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ק"ג) </t>
+          <t>יח'</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">קולורבי סגול   </t>
+          <t xml:space="preserve">קישוא כהה/בהיר אורגני </t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">קייל אדום נימים  </t>
+          <t xml:space="preserve">רוקט  </t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t>יח'</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">רוקט  </t>
+          <t xml:space="preserve">שומר  </t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(יח')</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(ק"ג)</t>
+          <t>ק"ג</t>
         </is>
       </c>
     </row>
